--- a/StructureDefinition-ext-R5-Extension.value.xlsx
+++ b/StructureDefinition-ext-R5-Extension.value.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Extension.value.xlsx
+++ b/StructureDefinition-ext-R5-Extension.value.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="219">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `Extension.value[x]` 0..1 `Address, Age, Annotation, Attachment, base64Binary, boolean, canonical, code, CodeableConcept, Coding, ContactDetail, ContactPoint, Contributor, Count, DataRequirement, date, dateTime, decimal, Distance, Dosage, Duration, Expression, HumanName, id, Identifier, instant, integer, markdown, Meta, Money, oid, ParameterDefinition, Period, positiveInt, Quantity, Range, Ratio, Reference, RelatedArtifact, SampledData, Signature, string, time, Timing, TriggerDefinition, unsignedInt, uri, url, UsageContext, uuid`
 Following are the generation technical comments:
 Note that the target element context `Extension.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Extension`.
-Element `Extension.value[x]` is mapped to FHIR R4 element `Extension.value[x]`.
+Element `Extension.value[x]` has is mapped to FHIR R4 element `Extension.value[x]`, but has no comparisons.
 Note that the target element context `Extension.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Extension`.</t>
   </si>
   <si>
@@ -471,6 +471,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.daysOfWeek</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:daysOfWeek.value[x]</t>
   </si>
   <si>
@@ -514,6 +517,9 @@
     <t>Extension.extension:availableTime.extension:allDay.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.allDay</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:allDay.value[x]</t>
   </si>
   <si>
@@ -548,6 +554,9 @@
     <t>Extension.extension:availableTime.extension:availableStartTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableStartTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableStartTime.value[x]</t>
   </si>
   <si>
@@ -579,6 +588,9 @@
     <t>Extension.extension:availableTime.extension:availableEndTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableEndTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableEndTime.value[x]</t>
   </si>
   <si>
@@ -641,6 +653,9 @@
     <t>Extension.extension:notAvailableTime.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.description</t>
+  </si>
+  <si>
     <t>Extension.extension:notAvailableTime.extension:description.value[x]</t>
   </si>
   <si>
@@ -666,6 +681,9 @@
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.during</t>
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.value[x]</t>
@@ -2660,7 +2678,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2722,10 +2740,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2748,7 +2766,7 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>136</v>
@@ -2781,13 +2799,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2825,13 +2843,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2856,14 +2874,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2932,7 +2950,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>140</v>
@@ -3035,7 +3053,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>142</v>
@@ -3140,7 +3158,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>144</v>
@@ -3183,7 +3201,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3245,10 +3263,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3271,13 +3289,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3348,13 +3366,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3379,16 +3397,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3457,7 +3475,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>140</v>
@@ -3560,7 +3578,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>142</v>
@@ -3665,7 +3683,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>144</v>
@@ -3708,7 +3726,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3770,10 +3788,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3796,16 +3814,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3875,13 +3893,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3906,16 +3924,16 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3984,7 +4002,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>140</v>
@@ -4087,7 +4105,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>142</v>
@@ -4192,7 +4210,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>144</v>
@@ -4235,7 +4253,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4297,10 +4315,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4323,16 +4341,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4402,7 +4420,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>112</v>
@@ -4507,7 +4525,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>121</v>
@@ -4533,7 +4551,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>81</v>
@@ -4610,13 +4628,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4641,14 +4659,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4717,7 +4735,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>104</v>
@@ -4820,7 +4838,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>106</v>
@@ -4923,13 +4941,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4954,16 +4972,16 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5032,7 +5050,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>140</v>
@@ -5135,7 +5153,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>142</v>
@@ -5240,7 +5258,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>144</v>
@@ -5283,7 +5301,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5345,10 +5363,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5374,13 +5392,13 @@
         <v>87</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5450,13 +5468,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5481,14 +5499,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5557,7 +5575,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>140</v>
@@ -5660,7 +5678,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>142</v>
@@ -5765,7 +5783,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>144</v>
@@ -5808,7 +5826,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5870,10 +5888,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5896,13 +5914,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5973,7 +5991,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>112</v>
@@ -6016,7 +6034,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6078,7 +6096,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>121</v>
@@ -6104,7 +6122,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>81</v>
@@ -6312,7 +6330,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-ext-R5-Extension.value.xlsx
+++ b/StructureDefinition-ext-R5-Extension.value.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="216">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -482,15 +482,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:availableTime.extension:allDay</t>
@@ -1046,8 +1037,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2799,13 +2790,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2843,13 +2834,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2874,14 +2865,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2950,7 +2941,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>140</v>
@@ -3053,7 +3044,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>142</v>
@@ -3158,7 +3149,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>144</v>
@@ -3201,7 +3192,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3263,7 +3254,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>147</v>
@@ -3289,13 +3280,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3366,13 +3357,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3397,16 +3388,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3475,7 +3466,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>140</v>
@@ -3578,7 +3569,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>142</v>
@@ -3683,7 +3674,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>144</v>
@@ -3726,7 +3717,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3788,7 +3779,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>147</v>
@@ -3814,16 +3805,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3893,13 +3884,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3924,16 +3915,16 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4002,7 +3993,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>140</v>
@@ -4105,7 +4096,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>142</v>
@@ -4210,7 +4201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>144</v>
@@ -4253,7 +4244,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4315,7 +4306,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>147</v>
@@ -4341,16 +4332,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4420,7 +4411,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>112</v>
@@ -4525,7 +4516,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>121</v>
@@ -4551,7 +4542,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>81</v>
@@ -4628,13 +4619,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4659,14 +4650,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4735,7 +4726,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>104</v>
@@ -4838,7 +4829,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>106</v>
@@ -4941,13 +4932,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4972,16 +4963,16 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5050,7 +5041,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>140</v>
@@ -5153,7 +5144,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>142</v>
@@ -5258,7 +5249,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>144</v>
@@ -5301,7 +5292,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5363,7 +5354,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>147</v>
@@ -5392,13 +5383,13 @@
         <v>87</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5468,13 +5459,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5499,14 +5490,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5575,7 +5566,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>140</v>
@@ -5678,7 +5669,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>142</v>
@@ -5783,7 +5774,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>144</v>
@@ -5826,7 +5817,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5888,7 +5879,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>147</v>
@@ -5914,13 +5905,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5991,7 +5982,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>112</v>
@@ -6034,7 +6025,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6096,7 +6087,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>121</v>
@@ -6122,7 +6113,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>81</v>
@@ -6330,7 +6321,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-ext-R5-Extension.value.xlsx
+++ b/StructureDefinition-ext-R5-Extension.value.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="219">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `Extension.value[x]` 0..1 `Address, Age, Annotation, Attachment, base64Binary, boolean, canonical, code, CodeableConcept, Coding, ContactDetail, ContactPoint, Contributor, Count, DataRequirement, date, dateTime, decimal, Distance, Dosage, Duration, Expression, HumanName, id, Identifier, instant, integer, markdown, Meta, Money, oid, ParameterDefinition, Period, positiveInt, Quantity, Range, Ratio, Reference, RelatedArtifact, SampledData, Signature, string, time, Timing, TriggerDefinition, unsignedInt, uri, url, UsageContext, uuid`
 Following are the generation technical comments:
 Note that the target element context `Extension.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Extension`.
-Element `Extension.value[x]` has is mapped to FHIR R4 element `Extension.value[x]`, but has no comparisons.
+Element `Extension.value[x]` is mapped to FHIR R4 element `Extension.value[x]` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `Extension.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Extension`.</t>
   </si>
   <si>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -482,6 +482,15 @@
   <si>
     <t xml:space="preserve">code
 </t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
   </si>
   <si>
     <t>Extension.extension:availableTime.extension:allDay</t>
@@ -1037,8 +1046,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.84375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2790,13 +2799,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2834,13 +2843,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2865,14 +2874,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2941,7 +2950,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>140</v>
@@ -3044,7 +3053,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>142</v>
@@ -3149,7 +3158,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>144</v>
@@ -3192,7 +3201,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3254,7 +3263,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>147</v>
@@ -3280,13 +3289,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3357,13 +3366,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3388,16 +3397,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3466,7 +3475,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>140</v>
@@ -3569,7 +3578,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>142</v>
@@ -3674,7 +3683,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>144</v>
@@ -3717,7 +3726,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3779,7 +3788,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>147</v>
@@ -3805,16 +3814,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3884,13 +3893,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3915,16 +3924,16 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3993,7 +4002,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>140</v>
@@ -4096,7 +4105,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>142</v>
@@ -4201,7 +4210,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>144</v>
@@ -4244,7 +4253,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4306,7 +4315,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>147</v>
@@ -4332,16 +4341,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4411,7 +4420,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>112</v>
@@ -4516,7 +4525,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>121</v>
@@ -4542,7 +4551,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>81</v>
@@ -4619,13 +4628,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4650,14 +4659,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4726,7 +4735,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>104</v>
@@ -4829,7 +4838,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>106</v>
@@ -4932,13 +4941,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4963,16 +4972,16 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5041,7 +5050,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>140</v>
@@ -5144,7 +5153,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>142</v>
@@ -5249,7 +5258,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>144</v>
@@ -5292,7 +5301,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5354,7 +5363,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>147</v>
@@ -5383,13 +5392,13 @@
         <v>87</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5459,13 +5468,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>106</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5490,14 +5499,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5566,7 +5575,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>140</v>
@@ -5669,7 +5678,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>142</v>
@@ -5774,7 +5783,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>144</v>
@@ -5817,7 +5826,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5879,7 +5888,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>147</v>
@@ -5905,13 +5914,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5982,7 +5991,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>112</v>
@@ -6025,7 +6034,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6087,7 +6096,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>121</v>
@@ -6113,7 +6122,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>81</v>
@@ -6321,7 +6330,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>81</v>
